--- a/documents/Implementation/ImplementationMetrics.xlsx
+++ b/documents/Implementation/ImplementationMetrics.xlsx
@@ -9,12 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8115" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8115" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Efficiency" sheetId="1" r:id="rId1"/>
     <sheet name="Reliability" sheetId="2" r:id="rId2"/>
-    <sheet name="Security" sheetId="3" r:id="rId3"/>
+    <sheet name="Robustness" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -25,11 +25,231 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="67">
+  <si>
+    <t>Robustness</t>
+  </si>
+  <si>
+    <t>Reliability</t>
+  </si>
+  <si>
+    <t>Score</t>
+  </si>
+  <si>
+    <t>#144</t>
+  </si>
+  <si>
+    <t>Travis CI Failed Build #</t>
+  </si>
+  <si>
+    <t>#143</t>
+  </si>
+  <si>
+    <t>Time in seconds</t>
+  </si>
+  <si>
+    <t>#113</t>
+  </si>
+  <si>
+    <t>#112</t>
+  </si>
+  <si>
+    <t>#105</t>
+  </si>
+  <si>
+    <t>#103</t>
+  </si>
+  <si>
+    <t>#101</t>
+  </si>
+  <si>
+    <t>#100</t>
+  </si>
+  <si>
+    <t>#99</t>
+  </si>
+  <si>
+    <t>#98</t>
+  </si>
+  <si>
+    <t>#97</t>
+  </si>
+  <si>
+    <t>#96</t>
+  </si>
+  <si>
+    <t>#95</t>
+  </si>
+  <si>
+    <t>#1</t>
+  </si>
+  <si>
+    <t>#2</t>
+  </si>
+  <si>
+    <t>#3</t>
+  </si>
+  <si>
+    <t>#4</t>
+  </si>
+  <si>
+    <t>#5</t>
+  </si>
+  <si>
+    <t>#6</t>
+  </si>
+  <si>
+    <t>#7</t>
+  </si>
+  <si>
+    <t>#8</t>
+  </si>
+  <si>
+    <t>#9</t>
+  </si>
+  <si>
+    <t>#10</t>
+  </si>
+  <si>
+    <t>#12</t>
+  </si>
+  <si>
+    <t>#13</t>
+  </si>
+  <si>
+    <t>#15</t>
+  </si>
+  <si>
+    <t>#16</t>
+  </si>
+  <si>
+    <t>#21</t>
+  </si>
+  <si>
+    <t>#22</t>
+  </si>
+  <si>
+    <t>#27</t>
+  </si>
+  <si>
+    <t>#28</t>
+  </si>
+  <si>
+    <t>#29</t>
+  </si>
+  <si>
+    <t>#31</t>
+  </si>
+  <si>
+    <t>#36</t>
+  </si>
+  <si>
+    <t>#37</t>
+  </si>
+  <si>
+    <t>#38</t>
+  </si>
+  <si>
+    <t>#39</t>
+  </si>
+  <si>
+    <t>#40</t>
+  </si>
+  <si>
+    <t>#41</t>
+  </si>
+  <si>
+    <t>#42</t>
+  </si>
+  <si>
+    <t>#43</t>
+  </si>
+  <si>
+    <t>#44</t>
+  </si>
+  <si>
+    <t>#45</t>
+  </si>
+  <si>
+    <t>#46</t>
+  </si>
+  <si>
+    <t>#47</t>
+  </si>
+  <si>
+    <t>#48</t>
+  </si>
+  <si>
+    <t>#49</t>
+  </si>
+  <si>
+    <t>#50</t>
+  </si>
+  <si>
+    <t>#51</t>
+  </si>
+  <si>
+    <t>#52</t>
+  </si>
+  <si>
+    <t>#53</t>
+  </si>
+  <si>
+    <t>#54</t>
+  </si>
+  <si>
+    <t>#55</t>
+  </si>
+  <si>
+    <t>#56</t>
+  </si>
+  <si>
+    <t>#57</t>
+  </si>
+  <si>
+    <t>#59</t>
+  </si>
+  <si>
+    <t>#64</t>
+  </si>
+  <si>
+    <t>#65</t>
+  </si>
+  <si>
+    <t>#66</t>
+  </si>
+  <si>
+    <t>#68</t>
+  </si>
+  <si>
+    <t>#69</t>
+  </si>
+  <si>
+    <t>Mean Time to Failure (seconds)</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -56,8 +276,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="15" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -384,24 +608,579 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E69"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="21.5703125" customWidth="1"/>
+    <col min="2" max="2" width="16.140625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="16.85546875" customWidth="1"/>
+    <col min="4" max="4" width="30.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="21" x14ac:dyDescent="0.35">
+      <c r="C3" s="1">
+        <v>42684</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" t="s">
+        <v>66</v>
+      </c>
+      <c r="E7" s="4">
+        <f>AVERAGE(B8:B69)</f>
+        <v>136.01612903225808</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="4">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="4">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="4">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="4">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="4">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" s="4">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="4">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" s="4">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" s="4">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17" s="4">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>14</v>
+      </c>
+      <c r="B18" s="4">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19" s="4">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>16</v>
+      </c>
+      <c r="B20" s="4">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>17</v>
+      </c>
+      <c r="B21" s="4">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>65</v>
+      </c>
+      <c r="B22" s="4">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>64</v>
+      </c>
+      <c r="B23" s="4">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>63</v>
+      </c>
+      <c r="B24" s="4">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>62</v>
+      </c>
+      <c r="B25" s="4">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>61</v>
+      </c>
+      <c r="B26" s="4">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>60</v>
+      </c>
+      <c r="B27" s="4">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>59</v>
+      </c>
+      <c r="B28" s="4">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>58</v>
+      </c>
+      <c r="B29" s="4">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>57</v>
+      </c>
+      <c r="B30" s="4">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>56</v>
+      </c>
+      <c r="B31" s="4">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>55</v>
+      </c>
+      <c r="B32" s="4">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>54</v>
+      </c>
+      <c r="B33" s="4">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>53</v>
+      </c>
+      <c r="B34" s="4">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>52</v>
+      </c>
+      <c r="B35" s="4">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>51</v>
+      </c>
+      <c r="B36" s="4">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>50</v>
+      </c>
+      <c r="B37" s="4">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>49</v>
+      </c>
+      <c r="B38" s="4">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>48</v>
+      </c>
+      <c r="B39" s="4">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>47</v>
+      </c>
+      <c r="B40" s="4">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>46</v>
+      </c>
+      <c r="B41" s="4">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>45</v>
+      </c>
+      <c r="B42" s="4">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>44</v>
+      </c>
+      <c r="B43" s="4">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>43</v>
+      </c>
+      <c r="B44" s="4">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>42</v>
+      </c>
+      <c r="B45" s="4">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>41</v>
+      </c>
+      <c r="B46" s="4">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>40</v>
+      </c>
+      <c r="B47" s="4">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>39</v>
+      </c>
+      <c r="B48" s="4">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>38</v>
+      </c>
+      <c r="B49" s="4">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>37</v>
+      </c>
+      <c r="B50" s="4">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>36</v>
+      </c>
+      <c r="B51" s="4">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>35</v>
+      </c>
+      <c r="B52" s="4">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>34</v>
+      </c>
+      <c r="B53" s="4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>33</v>
+      </c>
+      <c r="B54" s="4">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>32</v>
+      </c>
+      <c r="B55" s="4">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>31</v>
+      </c>
+      <c r="B56" s="4">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>30</v>
+      </c>
+      <c r="B57" s="4">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>29</v>
+      </c>
+      <c r="B58" s="4">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>28</v>
+      </c>
+      <c r="B59" s="4">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>27</v>
+      </c>
+      <c r="B60" s="4">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>26</v>
+      </c>
+      <c r="B61" s="4">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>25</v>
+      </c>
+      <c r="B62" s="4">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>24</v>
+      </c>
+      <c r="B63" s="4">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>23</v>
+      </c>
+      <c r="B64" s="4">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>22</v>
+      </c>
+      <c r="B65" s="4">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>21</v>
+      </c>
+      <c r="B66" s="4">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>20</v>
+      </c>
+      <c r="B67" s="4">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>19</v>
+      </c>
+      <c r="B68" s="4">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>18</v>
+      </c>
+      <c r="B69" s="4">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="19.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="21" x14ac:dyDescent="0.35">
+      <c r="A3" s="1">
+        <v>42684</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="3">
+        <v>0.71</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/documents/Implementation/ImplementationMetrics.xlsx
+++ b/documents/Implementation/ImplementationMetrics.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8115" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8115"/>
   </bookViews>
   <sheets>
     <sheet name="Efficiency" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="87">
   <si>
     <t>Robustness</t>
   </si>
@@ -227,13 +227,73 @@
   </si>
   <si>
     <t>Mean Time to Failure (seconds)</t>
+  </si>
+  <si>
+    <t>Bug Risk / Total Issues</t>
+  </si>
+  <si>
+    <t>23 / 32</t>
+  </si>
+  <si>
+    <t>Total Requests / Total Bytes Sent</t>
+  </si>
+  <si>
+    <t>Request / Bytes</t>
+  </si>
+  <si>
+    <t>Login</t>
+  </si>
+  <si>
+    <t>Web Page</t>
+  </si>
+  <si>
+    <t>Sign Up</t>
+  </si>
+  <si>
+    <t>Logout</t>
+  </si>
+  <si>
+    <t>createPost</t>
+  </si>
+  <si>
+    <t>users/me</t>
+  </si>
+  <si>
+    <t>createBucket</t>
+  </si>
+  <si>
+    <t>39 / 151 Bytes</t>
+  </si>
+  <si>
+    <t>40 / 349 Bytes</t>
+  </si>
+  <si>
+    <t>35 / 228 Bytes</t>
+  </si>
+  <si>
+    <t>39 / 2.5 Kbytes</t>
+  </si>
+  <si>
+    <t>1 / 4 Bytes</t>
+  </si>
+  <si>
+    <t>1 / 8 Bytes</t>
+  </si>
+  <si>
+    <t>1 / 64 Bytes</t>
+  </si>
+  <si>
+    <t>1 / 6 Bytes</t>
+  </si>
+  <si>
+    <t>Efficiency</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -250,6 +310,29 @@
     </font>
     <font>
       <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -276,12 +359,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="15" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="15" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -596,13 +686,111 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="36" customWidth="1"/>
+    <col min="2" max="2" width="14.140625" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" customWidth="1"/>
+    <col min="5" max="5" width="13.42578125" customWidth="1"/>
+    <col min="6" max="6" width="14" customWidth="1"/>
+    <col min="7" max="7" width="16.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="21" x14ac:dyDescent="0.35">
+      <c r="A1" s="11" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" s="7" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A3"/>
+      <c r="B3"/>
+      <c r="C3" s="5">
+        <v>42684</v>
+      </c>
+      <c r="D3"/>
+      <c r="E3"/>
+      <c r="F3"/>
+      <c r="G3"/>
+    </row>
+    <row r="5" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="B6" t="s">
+        <v>78</v>
+      </c>
+      <c r="C6" t="s">
+        <v>78</v>
+      </c>
+      <c r="D6" t="s">
+        <v>79</v>
+      </c>
+      <c r="E6" t="s">
+        <v>78</v>
+      </c>
+      <c r="F6" t="s">
+        <v>81</v>
+      </c>
+      <c r="G6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="B7" t="s">
+        <v>82</v>
+      </c>
+      <c r="C7" t="s">
+        <v>82</v>
+      </c>
+      <c r="D7" t="s">
+        <v>83</v>
+      </c>
+      <c r="E7" t="s">
+        <v>82</v>
+      </c>
+      <c r="F7" t="s">
+        <v>84</v>
+      </c>
+      <c r="G7" t="s">
+        <v>85</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -610,8 +798,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -633,13 +821,14 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="A7" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="D7" t="s">
+      <c r="C7" s="6"/>
+      <c r="D7" s="6" t="s">
         <v>66</v>
       </c>
       <c r="E7" s="4">
@@ -1150,15 +1339,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="A5" sqref="A5:A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.28515625" customWidth="1"/>
+    <col min="1" max="1" width="22.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
@@ -1172,10 +1361,18 @@
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="B5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B6" s="3">
         <v>0.71</v>
       </c>
     </row>

--- a/documents/Implementation/ImplementationMetrics.xlsx
+++ b/documents/Implementation/ImplementationMetrics.xlsx
@@ -271,22 +271,22 @@
     <t>35 / 228 Bytes</t>
   </si>
   <si>
-    <t>39 / 2.5 Kbytes</t>
-  </si>
-  <si>
     <t>1 / 4 Bytes</t>
   </si>
   <si>
     <t>1 / 8 Bytes</t>
   </si>
   <si>
-    <t>1 / 64 Bytes</t>
-  </si>
-  <si>
     <t>1 / 6 Bytes</t>
   </si>
   <si>
     <t>Efficiency</t>
+  </si>
+  <si>
+    <t>6 / 68.9 Kbytes</t>
+  </si>
+  <si>
+    <t>1 / 1.1 KBytes</t>
   </si>
 </sst>
 </file>
@@ -689,7 +689,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -705,7 +705,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="11" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:7" s="7" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
@@ -759,7 +759,7 @@
         <v>78</v>
       </c>
       <c r="F6" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="G6" t="s">
         <v>80</v>
@@ -770,22 +770,22 @@
         <v>70</v>
       </c>
       <c r="B7" t="s">
+        <v>81</v>
+      </c>
+      <c r="C7" t="s">
+        <v>81</v>
+      </c>
+      <c r="D7" t="s">
         <v>82</v>
       </c>
-      <c r="C7" t="s">
-        <v>82</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
+        <v>81</v>
+      </c>
+      <c r="F7" t="s">
+        <v>86</v>
+      </c>
+      <c r="G7" t="s">
         <v>83</v>
-      </c>
-      <c r="E7" t="s">
-        <v>82</v>
-      </c>
-      <c r="F7" t="s">
-        <v>84</v>
-      </c>
-      <c r="G7" t="s">
-        <v>85</v>
       </c>
     </row>
   </sheetData>

--- a/documents/Implementation/ImplementationMetrics.xlsx
+++ b/documents/Implementation/ImplementationMetrics.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8115"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8115" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Efficiency" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="91">
   <si>
     <t>Robustness</t>
   </si>
@@ -287,13 +287,25 @@
   </si>
   <si>
     <t>1 / 1.1 KBytes</t>
+  </si>
+  <si>
+    <t>#176</t>
+  </si>
+  <si>
+    <t>#209</t>
+  </si>
+  <si>
+    <t>#225</t>
+  </si>
+  <si>
+    <t>43 / 52</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -338,6 +350,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -365,13 +385,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="15" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="15" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -686,10 +706,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -704,14 +724,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="10" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="7" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" s="6" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A3"/>
       <c r="B3"/>
-      <c r="C3" s="5">
+      <c r="C3" s="11">
         <v>42684</v>
       </c>
       <c r="D3"/>
@@ -720,30 +740,30 @@
       <c r="G3"/>
     </row>
     <row r="5" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="F5" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="G5" s="6" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="7" t="s">
         <v>69</v>
       </c>
       <c r="B6" t="s">
@@ -766,7 +786,7 @@
       </c>
     </row>
     <row r="7" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="7" t="s">
         <v>70</v>
       </c>
       <c r="B7" t="s">
@@ -787,6 +807,9 @@
       <c r="G7" t="s">
         <v>83</v>
       </c>
+    </row>
+    <row r="10" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="C10" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -796,10 +819,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E69"/>
+  <dimension ref="A1:J69"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -808,59 +831,98 @@
     <col min="2" max="2" width="16.140625" style="4" customWidth="1"/>
     <col min="3" max="3" width="16.85546875" customWidth="1"/>
     <col min="4" max="4" width="30.42578125" customWidth="1"/>
+    <col min="7" max="7" width="21.5703125" customWidth="1"/>
+    <col min="8" max="8" width="16.140625" customWidth="1"/>
+    <col min="9" max="9" width="15.28515625" customWidth="1"/>
+    <col min="10" max="10" width="30.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="21" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" ht="21" x14ac:dyDescent="0.35">
       <c r="C3" s="1">
         <v>42684</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
+      <c r="I3" s="1">
+        <v>42690</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6" t="s">
+      <c r="C7" s="5"/>
+      <c r="D7" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="E7" s="4">
+      <c r="G7" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="4">
+        <v>69</v>
+      </c>
+      <c r="D8" s="4">
         <f>AVERAGE(B8:B69)</f>
         <v>136.01612903225808</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B8" s="4">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G8" t="s">
+        <v>89</v>
+      </c>
+      <c r="H8">
+        <v>47</v>
+      </c>
+      <c r="J8" s="4">
+        <f>AVERAGE(H8:H69)</f>
+        <v>249.66666666666666</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>5</v>
       </c>
       <c r="B9" s="4">
         <v>83</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G9" t="s">
+        <v>88</v>
+      </c>
+      <c r="H9">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>3</v>
       </c>
       <c r="B10" s="4">
         <v>79</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G10" t="s">
+        <v>87</v>
+      </c>
+      <c r="H10">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -868,7 +930,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>8</v>
       </c>
@@ -876,7 +938,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>9</v>
       </c>
@@ -884,7 +946,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>10</v>
       </c>
@@ -892,7 +954,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>11</v>
       </c>
@@ -900,7 +962,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>12</v>
       </c>
@@ -1339,41 +1401,51 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:A6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.28515625" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="21" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>42684</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
+      <c r="D3" s="1">
+        <v>42690</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
         <v>67</v>
       </c>
       <c r="B5" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="10" t="s">
+      <c r="D5" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="9" t="s">
         <v>2</v>
       </c>
       <c r="B6" s="3">
         <v>0.71</v>
+      </c>
+      <c r="D6" s="3">
+        <v>0.82</v>
       </c>
     </row>
   </sheetData>

--- a/documents/Implementation/ImplementationMetrics.xlsx
+++ b/documents/Implementation/ImplementationMetrics.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8115" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8115"/>
   </bookViews>
   <sheets>
     <sheet name="Efficiency" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="99">
   <si>
     <t>Robustness</t>
   </si>
@@ -262,33 +262,9 @@
     <t>createBucket</t>
   </si>
   <si>
-    <t>39 / 151 Bytes</t>
-  </si>
-  <si>
-    <t>40 / 349 Bytes</t>
-  </si>
-  <si>
-    <t>35 / 228 Bytes</t>
-  </si>
-  <si>
-    <t>1 / 4 Bytes</t>
-  </si>
-  <si>
-    <t>1 / 8 Bytes</t>
-  </si>
-  <si>
-    <t>1 / 6 Bytes</t>
-  </si>
-  <si>
     <t>Efficiency</t>
   </si>
   <si>
-    <t>6 / 68.9 Kbytes</t>
-  </si>
-  <si>
-    <t>1 / 1.1 KBytes</t>
-  </si>
-  <si>
     <t>#176</t>
   </si>
   <si>
@@ -299,13 +275,61 @@
   </si>
   <si>
     <t>43 / 52</t>
+  </si>
+  <si>
+    <t>home</t>
+  </si>
+  <si>
+    <t>addBucket</t>
+  </si>
+  <si>
+    <t>1 / 79.5 B</t>
+  </si>
+  <si>
+    <t>39 / 151 B</t>
+  </si>
+  <si>
+    <t>1 / 4 B</t>
+  </si>
+  <si>
+    <t>40 / 349 B</t>
+  </si>
+  <si>
+    <t>6 / 68.9 KB</t>
+  </si>
+  <si>
+    <t>35 / 228 B</t>
+  </si>
+  <si>
+    <t>1 / 8 B</t>
+  </si>
+  <si>
+    <t>1 / 1.1 KB</t>
+  </si>
+  <si>
+    <t>1 / 6 B</t>
+  </si>
+  <si>
+    <t>8 / 636 B</t>
+  </si>
+  <si>
+    <t>9 / 834 B</t>
+  </si>
+  <si>
+    <t>6 / 1.0 KB</t>
+  </si>
+  <si>
+    <t>1 / 92.7 B</t>
+  </si>
+  <si>
+    <t>1 / 166.7 B</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -358,6 +382,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -379,7 +411,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="15" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -392,6 +424,7 @@
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="15" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="15" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -706,10 +739,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -725,7 +758,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="10" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:7" s="6" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
@@ -767,22 +800,22 @@
         <v>69</v>
       </c>
       <c r="B6" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="C6" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="D6" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="E6" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="F6" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="G6" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -790,26 +823,85 @@
         <v>70</v>
       </c>
       <c r="B7" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="C7" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="D7" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="E7" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="F7" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="G7" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="21" x14ac:dyDescent="0.35">
+      <c r="C10" s="12">
+        <v>42690</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="F12" s="6" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="C10" s="11"/>
+      <c r="G12" s="6" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="B13" t="s">
+        <v>94</v>
+      </c>
+      <c r="C13" t="s">
+        <v>94</v>
+      </c>
+      <c r="D13" t="s">
+        <v>95</v>
+      </c>
+      <c r="E13" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="B14" t="s">
+        <v>85</v>
+      </c>
+      <c r="C14" t="s">
+        <v>85</v>
+      </c>
+      <c r="D14" t="s">
+        <v>97</v>
+      </c>
+      <c r="E14" t="s">
+        <v>98</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -884,7 +976,7 @@
         <v>136.01612903225808</v>
       </c>
       <c r="G8" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="H8">
         <v>47</v>
@@ -902,7 +994,7 @@
         <v>83</v>
       </c>
       <c r="G9" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H9">
         <v>49</v>
@@ -916,7 +1008,7 @@
         <v>79</v>
       </c>
       <c r="G10" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H10">
         <v>653</v>
@@ -1403,7 +1495,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
@@ -1434,7 +1526,7 @@
         <v>68</v>
       </c>
       <c r="D5" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">

--- a/documents/Implementation/ImplementationMetrics.xlsx
+++ b/documents/Implementation/ImplementationMetrics.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="99">
   <si>
     <t>Robustness</t>
   </si>
@@ -262,38 +262,74 @@
     <t>createBucket</t>
   </si>
   <si>
-    <t>39 / 151 Bytes</t>
-  </si>
-  <si>
-    <t>40 / 349 Bytes</t>
-  </si>
-  <si>
-    <t>35 / 228 Bytes</t>
-  </si>
-  <si>
-    <t>1 / 4 Bytes</t>
-  </si>
-  <si>
-    <t>1 / 8 Bytes</t>
-  </si>
-  <si>
-    <t>1 / 6 Bytes</t>
-  </si>
-  <si>
     <t>Efficiency</t>
   </si>
   <si>
-    <t>6 / 68.9 Kbytes</t>
-  </si>
-  <si>
-    <t>1 / 1.1 KBytes</t>
+    <t>#176</t>
+  </si>
+  <si>
+    <t>#209</t>
+  </si>
+  <si>
+    <t>#225</t>
+  </si>
+  <si>
+    <t>43 / 52</t>
+  </si>
+  <si>
+    <t>home</t>
+  </si>
+  <si>
+    <t>addBucket</t>
+  </si>
+  <si>
+    <t>1 / 79.5 B</t>
+  </si>
+  <si>
+    <t>39 / 151 B</t>
+  </si>
+  <si>
+    <t>1 / 4 B</t>
+  </si>
+  <si>
+    <t>40 / 349 B</t>
+  </si>
+  <si>
+    <t>6 / 68.9 KB</t>
+  </si>
+  <si>
+    <t>35 / 228 B</t>
+  </si>
+  <si>
+    <t>1 / 8 B</t>
+  </si>
+  <si>
+    <t>1 / 1.1 KB</t>
+  </si>
+  <si>
+    <t>1 / 6 B</t>
+  </si>
+  <si>
+    <t>8 / 636 B</t>
+  </si>
+  <si>
+    <t>9 / 834 B</t>
+  </si>
+  <si>
+    <t>6 / 1.0 KB</t>
+  </si>
+  <si>
+    <t>1 / 92.7 B</t>
+  </si>
+  <si>
+    <t>1 / 166.7 B</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -338,6 +374,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -359,19 +411,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="15" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="15" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="15" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="15" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -686,10 +739,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -704,14 +757,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="11" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" s="7" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A1" s="10" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" s="6" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A3"/>
       <c r="B3"/>
-      <c r="C3" s="5">
+      <c r="C3" s="11">
         <v>42684</v>
       </c>
       <c r="D3"/>
@@ -720,72 +773,134 @@
       <c r="G3"/>
     </row>
     <row r="5" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="F5" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="G5" s="6" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="7" t="s">
         <v>69</v>
       </c>
       <c r="B6" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="C6" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="D6" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="E6" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="F6" t="s">
+        <v>89</v>
+      </c>
+      <c r="G6" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="B7" t="s">
+        <v>87</v>
+      </c>
+      <c r="C7" t="s">
+        <v>87</v>
+      </c>
+      <c r="D7" t="s">
+        <v>91</v>
+      </c>
+      <c r="E7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F7" t="s">
+        <v>92</v>
+      </c>
+      <c r="G7" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="21" x14ac:dyDescent="0.35">
+      <c r="C10" s="12">
+        <v>42690</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="B13" t="s">
+        <v>94</v>
+      </c>
+      <c r="C13" t="s">
+        <v>94</v>
+      </c>
+      <c r="D13" t="s">
+        <v>95</v>
+      </c>
+      <c r="E13" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="B14" t="s">
         <v>85</v>
       </c>
-      <c r="G6" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="B7" t="s">
-        <v>81</v>
-      </c>
-      <c r="C7" t="s">
-        <v>81</v>
-      </c>
-      <c r="D7" t="s">
-        <v>82</v>
-      </c>
-      <c r="E7" t="s">
-        <v>81</v>
-      </c>
-      <c r="F7" t="s">
-        <v>86</v>
-      </c>
-      <c r="G7" t="s">
-        <v>83</v>
+      <c r="C14" t="s">
+        <v>85</v>
+      </c>
+      <c r="D14" t="s">
+        <v>97</v>
+      </c>
+      <c r="E14" t="s">
+        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -796,10 +911,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E69"/>
+  <dimension ref="A1:J69"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -808,59 +923,98 @@
     <col min="2" max="2" width="16.140625" style="4" customWidth="1"/>
     <col min="3" max="3" width="16.85546875" customWidth="1"/>
     <col min="4" max="4" width="30.42578125" customWidth="1"/>
+    <col min="7" max="7" width="21.5703125" customWidth="1"/>
+    <col min="8" max="8" width="16.140625" customWidth="1"/>
+    <col min="9" max="9" width="15.28515625" customWidth="1"/>
+    <col min="10" max="10" width="30.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="21" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" ht="21" x14ac:dyDescent="0.35">
       <c r="C3" s="1">
         <v>42684</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
+      <c r="I3" s="1">
+        <v>42690</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6" t="s">
+      <c r="C7" s="5"/>
+      <c r="D7" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="E7" s="4">
+      <c r="G7" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="4">
+        <v>69</v>
+      </c>
+      <c r="D8" s="4">
         <f>AVERAGE(B8:B69)</f>
         <v>136.01612903225808</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B8" s="4">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G8" t="s">
+        <v>81</v>
+      </c>
+      <c r="H8">
+        <v>47</v>
+      </c>
+      <c r="J8" s="4">
+        <f>AVERAGE(H8:H69)</f>
+        <v>249.66666666666666</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>5</v>
       </c>
       <c r="B9" s="4">
         <v>83</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G9" t="s">
+        <v>80</v>
+      </c>
+      <c r="H9">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>3</v>
       </c>
       <c r="B10" s="4">
         <v>79</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G10" t="s">
+        <v>79</v>
+      </c>
+      <c r="H10">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -868,7 +1022,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>8</v>
       </c>
@@ -876,7 +1030,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>9</v>
       </c>
@@ -884,7 +1038,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>10</v>
       </c>
@@ -892,7 +1046,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>11</v>
       </c>
@@ -900,7 +1054,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>12</v>
       </c>
@@ -1339,41 +1493,51 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:A6"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.28515625" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="21" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>42684</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
+      <c r="D3" s="1">
+        <v>42690</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
         <v>67</v>
       </c>
       <c r="B5" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="10" t="s">
+      <c r="D5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="9" t="s">
         <v>2</v>
       </c>
       <c r="B6" s="3">
         <v>0.71</v>
+      </c>
+      <c r="D6" s="3">
+        <v>0.82</v>
       </c>
     </row>
   </sheetData>

--- a/documents/Implementation/ImplementationMetrics.xlsx
+++ b/documents/Implementation/ImplementationMetrics.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8115"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8115" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Efficiency" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="106">
   <si>
     <t>Robustness</t>
   </si>
@@ -323,6 +323,27 @@
   </si>
   <si>
     <t>1 / 166.7 B</t>
+  </si>
+  <si>
+    <t>15 / 28</t>
+  </si>
+  <si>
+    <t>#264</t>
+  </si>
+  <si>
+    <t>#266</t>
+  </si>
+  <si>
+    <t>#294</t>
+  </si>
+  <si>
+    <t>#296</t>
+  </si>
+  <si>
+    <t>#311</t>
+  </si>
+  <si>
+    <t>#321</t>
   </si>
 </sst>
 </file>
@@ -741,7 +762,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
@@ -911,10 +932,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J69"/>
+  <dimension ref="A1:O69"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -927,22 +948,29 @@
     <col min="8" max="8" width="16.140625" customWidth="1"/>
     <col min="9" max="9" width="15.28515625" customWidth="1"/>
     <col min="10" max="10" width="30.7109375" customWidth="1"/>
+    <col min="12" max="12" width="24" customWidth="1"/>
+    <col min="13" max="13" width="16.28515625" customWidth="1"/>
+    <col min="14" max="14" width="19.85546875" customWidth="1"/>
+    <col min="15" max="15" width="29.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="21" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:15" ht="21" x14ac:dyDescent="0.35">
       <c r="C3" s="1">
         <v>42684</v>
       </c>
       <c r="I3" s="1">
         <v>42690</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N3" s="1">
+        <v>42695</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>4</v>
       </c>
@@ -963,8 +991,18 @@
       <c r="J7" s="5" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L7" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="M7" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="N7" s="5"/>
+      <c r="O7" s="5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>3</v>
       </c>
@@ -985,8 +1023,18 @@
         <f>AVERAGE(H8:H69)</f>
         <v>249.66666666666666</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L8" t="s">
+        <v>105</v>
+      </c>
+      <c r="M8">
+        <v>176</v>
+      </c>
+      <c r="O8" s="4">
+        <f>AVERAGE(M8:M69)</f>
+        <v>159.16666666666666</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -999,8 +1047,14 @@
       <c r="H9">
         <v>49</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L9" t="s">
+        <v>104</v>
+      </c>
+      <c r="M9">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>3</v>
       </c>
@@ -1013,32 +1067,56 @@
       <c r="H10">
         <v>653</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L10" t="s">
+        <v>103</v>
+      </c>
+      <c r="M10">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>7</v>
       </c>
       <c r="B11" s="4">
         <v>94</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L11" t="s">
+        <v>102</v>
+      </c>
+      <c r="M11">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>8</v>
       </c>
       <c r="B12" s="4">
         <v>80</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L12" t="s">
+        <v>101</v>
+      </c>
+      <c r="M12">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>9</v>
       </c>
       <c r="B13" s="4">
         <v>95</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L13" t="s">
+        <v>100</v>
+      </c>
+      <c r="M13">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>10</v>
       </c>
@@ -1046,7 +1124,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>11</v>
       </c>
@@ -1054,7 +1132,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>12</v>
       </c>
@@ -1493,32 +1571,36 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.28515625" customWidth="1"/>
     <col min="4" max="4" width="15.42578125" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" ht="21" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>42684</v>
       </c>
       <c r="D3" s="1">
         <v>42690</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F3" s="1">
+        <v>42695</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>67</v>
       </c>
@@ -1528,8 +1610,11 @@
       <c r="D5" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>2</v>
       </c>
@@ -1538,6 +1623,9 @@
       </c>
       <c r="D6" s="3">
         <v>0.82</v>
+      </c>
+      <c r="F6" s="3">
+        <v>0.53</v>
       </c>
     </row>
   </sheetData>

--- a/documents/Implementation/ImplementationMetrics.xlsx
+++ b/documents/Implementation/ImplementationMetrics.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17329"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17426"/>
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="109">
   <si>
     <t>Robustness</t>
   </si>
@@ -344,6 +344,15 @@
   </si>
   <si>
     <t>#321</t>
+  </si>
+  <si>
+    <t>There were not any</t>
+  </si>
+  <si>
+    <t>failed builds</t>
+  </si>
+  <si>
+    <t>since november 21</t>
   </si>
 </sst>
 </file>
@@ -932,10 +941,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O69"/>
+  <dimension ref="A1:T69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="S8" sqref="S8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -952,14 +961,17 @@
     <col min="13" max="13" width="16.28515625" customWidth="1"/>
     <col min="14" max="14" width="19.85546875" customWidth="1"/>
     <col min="15" max="15" width="29.42578125" customWidth="1"/>
+    <col min="17" max="17" width="23.140625" customWidth="1"/>
+    <col min="18" max="18" width="15.85546875" customWidth="1"/>
+    <col min="19" max="19" width="21.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:20" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="21" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="C3" s="1">
         <v>42684</v>
       </c>
@@ -969,8 +981,11 @@
       <c r="N3" s="1">
         <v>42695</v>
       </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="S3" s="1">
+        <v>42698</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>4</v>
       </c>
@@ -1001,8 +1016,18 @@
       <c r="O7" s="5" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q7" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="R7" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="S7" s="5"/>
+      <c r="T7" s="5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>3</v>
       </c>
@@ -1033,8 +1058,9 @@
         <f>AVERAGE(M8:M69)</f>
         <v>159.16666666666666</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="T8" s="4"/>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -1054,7 +1080,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>3</v>
       </c>
@@ -1073,8 +1099,17 @@
       <c r="M10">
         <v>177</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q10" t="s">
+        <v>106</v>
+      </c>
+      <c r="R10" t="s">
+        <v>107</v>
+      </c>
+      <c r="S10" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -1088,7 +1123,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>8</v>
       </c>
@@ -1102,7 +1137,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>9</v>
       </c>
@@ -1116,7 +1151,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>10</v>
       </c>
@@ -1124,7 +1159,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>11</v>
       </c>
@@ -1132,7 +1167,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>12</v>
       </c>
@@ -1571,10 +1606,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1582,14 +1617,15 @@
     <col min="1" max="1" width="22.28515625" customWidth="1"/>
     <col min="4" max="4" width="15.42578125" customWidth="1"/>
     <col min="6" max="6" width="14.28515625" customWidth="1"/>
+    <col min="8" max="8" width="16.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="21" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" ht="21" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>42684</v>
       </c>
@@ -1599,8 +1635,11 @@
       <c r="F3" s="1">
         <v>42695</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H3" s="1">
+        <v>42698</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>67</v>
       </c>
@@ -1613,8 +1652,11 @@
       <c r="F5" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>2</v>
       </c>
@@ -1625,6 +1667,9 @@
         <v>0.82</v>
       </c>
       <c r="F6" s="3">
+        <v>0.53</v>
+      </c>
+      <c r="H6" s="3">
         <v>0.53</v>
       </c>
     </row>

--- a/documents/Implementation/ImplementationMetrics.xlsx
+++ b/documents/Implementation/ImplementationMetrics.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8115" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8115"/>
   </bookViews>
   <sheets>
     <sheet name="Efficiency" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="112">
   <si>
     <t>Robustness</t>
   </si>
@@ -353,6 +353,15 @@
   </si>
   <si>
     <t>since november 21</t>
+  </si>
+  <si>
+    <t>12 / 13.2 KB</t>
+  </si>
+  <si>
+    <t>14 / 12.9 KB</t>
+  </si>
+  <si>
+    <t>1 / 921 B</t>
   </si>
 </sst>
 </file>
@@ -771,8 +780,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -915,6 +924,12 @@
       <c r="E13" t="s">
         <v>96</v>
       </c>
+      <c r="F13" t="s">
+        <v>109</v>
+      </c>
+      <c r="G13" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="14" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
@@ -931,6 +946,12 @@
       </c>
       <c r="E14" t="s">
         <v>98</v>
+      </c>
+      <c r="F14" t="s">
+        <v>92</v>
+      </c>
+      <c r="G14" t="s">
+        <v>111</v>
       </c>
     </row>
   </sheetData>
@@ -943,7 +964,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+    <sheetView topLeftCell="K1" workbookViewId="0">
       <selection activeCell="S8" sqref="S8"/>
     </sheetView>
   </sheetViews>

--- a/documents/Implementation/ImplementationMetrics.xlsx
+++ b/documents/Implementation/ImplementationMetrics.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8115"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8115" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Efficiency" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="113">
   <si>
     <t>Robustness</t>
   </si>
@@ -362,6 +362,9 @@
   </si>
   <si>
     <t>1 / 921 B</t>
+  </si>
+  <si>
+    <t>22 / 38</t>
   </si>
 </sst>
 </file>
@@ -780,7 +783,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
@@ -1627,10 +1630,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1694,6 +1697,21 @@
         <v>0.53</v>
       </c>
     </row>
+    <row r="9" spans="1:8" ht="21" x14ac:dyDescent="0.35">
+      <c r="D9" s="1">
+        <v>42706</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D11" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D12" s="3">
+        <v>0.56999999999999995</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/documents/Implementation/ImplementationMetrics.xlsx
+++ b/documents/Implementation/ImplementationMetrics.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8115" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8115"/>
   </bookViews>
   <sheets>
     <sheet name="Efficiency" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="118">
   <si>
     <t>Robustness</t>
   </si>
@@ -365,6 +365,21 @@
   </si>
   <si>
     <t>22 / 38</t>
+  </si>
+  <si>
+    <t>25 / 50</t>
+  </si>
+  <si>
+    <t>41 / 1.6 KB</t>
+  </si>
+  <si>
+    <t>1 / 40 B</t>
+  </si>
+  <si>
+    <t>41 / 2.6 KB</t>
+  </si>
+  <si>
+    <t>1 / 63.42 B</t>
   </si>
 </sst>
 </file>
@@ -781,10 +796,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -955,6 +970,68 @@
       </c>
       <c r="G14" t="s">
         <v>111</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="21" x14ac:dyDescent="0.35">
+      <c r="C17" s="12">
+        <v>42709</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="G19" s="6" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="B20" t="s">
+        <v>114</v>
+      </c>
+      <c r="C20" t="s">
+        <v>116</v>
+      </c>
+      <c r="D20" t="s">
+        <v>95</v>
+      </c>
+      <c r="E20" t="s">
+        <v>96</v>
+      </c>
+      <c r="F20" t="s">
+        <v>109</v>
+      </c>
+      <c r="G20" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="B21" t="s">
+        <v>115</v>
+      </c>
+      <c r="C21" t="s">
+        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -1632,8 +1709,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1701,15 +1778,24 @@
       <c r="D9" s="1">
         <v>42706</v>
       </c>
+      <c r="F9" s="1">
+        <v>42709</v>
+      </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D11" t="s">
         <v>112</v>
       </c>
+      <c r="F11" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D12" s="3">
         <v>0.56999999999999995</v>
+      </c>
+      <c r="F12" s="3">
+        <v>0.5</v>
       </c>
     </row>
   </sheetData>

--- a/documents/Implementation/ImplementationMetrics.xlsx
+++ b/documents/Implementation/ImplementationMetrics.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8115"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8115" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Efficiency" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="142">
   <si>
     <t>Robustness</t>
   </si>
@@ -346,15 +346,6 @@
     <t>#321</t>
   </si>
   <si>
-    <t>There were not any</t>
-  </si>
-  <si>
-    <t>failed builds</t>
-  </si>
-  <si>
-    <t>since november 21</t>
-  </si>
-  <si>
     <t>12 / 13.2 KB</t>
   </si>
   <si>
@@ -380,6 +371,87 @@
   </si>
   <si>
     <t>1 / 63.42 B</t>
+  </si>
+  <si>
+    <t>42 / 2.7 KB</t>
+  </si>
+  <si>
+    <t>48 / 3.0 KB</t>
+  </si>
+  <si>
+    <t>49 / 1.8 KB</t>
+  </si>
+  <si>
+    <t>1 / 64.3 B</t>
+  </si>
+  <si>
+    <t>1 / 50 B</t>
+  </si>
+  <si>
+    <t>1 / 62.5 B</t>
+  </si>
+  <si>
+    <t>#446</t>
+  </si>
+  <si>
+    <t>#445</t>
+  </si>
+  <si>
+    <t>#443</t>
+  </si>
+  <si>
+    <t>#429</t>
+  </si>
+  <si>
+    <t>#424</t>
+  </si>
+  <si>
+    <t>#422</t>
+  </si>
+  <si>
+    <t>#420</t>
+  </si>
+  <si>
+    <t>#411</t>
+  </si>
+  <si>
+    <t>#400</t>
+  </si>
+  <si>
+    <t>#386</t>
+  </si>
+  <si>
+    <t>#385</t>
+  </si>
+  <si>
+    <t>#384</t>
+  </si>
+  <si>
+    <t>#382</t>
+  </si>
+  <si>
+    <t>#377</t>
+  </si>
+  <si>
+    <t>#378</t>
+  </si>
+  <si>
+    <t>#379</t>
+  </si>
+  <si>
+    <t>#380</t>
+  </si>
+  <si>
+    <t>#381</t>
+  </si>
+  <si>
+    <t>#375</t>
+  </si>
+  <si>
+    <t>#370</t>
+  </si>
+  <si>
+    <t>#359</t>
   </si>
 </sst>
 </file>
@@ -798,8 +870,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -943,10 +1015,10 @@
         <v>96</v>
       </c>
       <c r="F13" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="G13" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -969,7 +1041,7 @@
         <v>92</v>
       </c>
       <c r="G14" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="21" x14ac:dyDescent="0.35">
@@ -1005,22 +1077,22 @@
         <v>69</v>
       </c>
       <c r="B20" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C20" t="s">
+        <v>113</v>
+      </c>
+      <c r="D20" t="s">
+        <v>115</v>
+      </c>
+      <c r="E20" t="s">
+        <v>117</v>
+      </c>
+      <c r="F20" t="s">
         <v>116</v>
       </c>
-      <c r="D20" t="s">
-        <v>95</v>
-      </c>
-      <c r="E20" t="s">
-        <v>96</v>
-      </c>
-      <c r="F20" t="s">
-        <v>109</v>
-      </c>
       <c r="G20" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -1028,10 +1100,22 @@
         <v>70</v>
       </c>
       <c r="B21" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C21" t="s">
-        <v>117</v>
+        <v>114</v>
+      </c>
+      <c r="D21" t="s">
+        <v>118</v>
+      </c>
+      <c r="E21" t="s">
+        <v>119</v>
+      </c>
+      <c r="F21" t="s">
+        <v>120</v>
+      </c>
+      <c r="G21" t="s">
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -1044,8 +1128,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T69"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="S8" sqref="S8"/>
+    <sheetView tabSelected="1" topLeftCell="M7" workbookViewId="0">
+      <selection activeCell="T8" sqref="T8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1065,6 +1149,7 @@
     <col min="17" max="17" width="23.140625" customWidth="1"/>
     <col min="18" max="18" width="15.85546875" customWidth="1"/>
     <col min="19" max="19" width="21.28515625" customWidth="1"/>
+    <col min="20" max="20" width="27.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="23.25" x14ac:dyDescent="0.35">
@@ -1083,7 +1168,7 @@
         <v>42695</v>
       </c>
       <c r="S3" s="1">
-        <v>42698</v>
+        <v>42709</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
@@ -1159,7 +1244,16 @@
         <f>AVERAGE(M8:M69)</f>
         <v>159.16666666666666</v>
       </c>
-      <c r="T8" s="4"/>
+      <c r="Q8" t="s">
+        <v>121</v>
+      </c>
+      <c r="R8">
+        <v>33</v>
+      </c>
+      <c r="T8" s="4">
+        <f>AVERAGE(R8:R28)</f>
+        <v>165.66666666666666</v>
+      </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -1180,6 +1274,12 @@
       <c r="M9">
         <v>190</v>
       </c>
+      <c r="Q9" t="s">
+        <v>122</v>
+      </c>
+      <c r="R9">
+        <v>30</v>
+      </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -1201,13 +1301,10 @@
         <v>177</v>
       </c>
       <c r="Q10" t="s">
-        <v>106</v>
-      </c>
-      <c r="R10" t="s">
-        <v>107</v>
-      </c>
-      <c r="S10" t="s">
-        <v>108</v>
+        <v>123</v>
+      </c>
+      <c r="R10">
+        <v>226</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
@@ -1223,6 +1320,12 @@
       <c r="M11">
         <v>182</v>
       </c>
+      <c r="Q11" t="s">
+        <v>124</v>
+      </c>
+      <c r="R11">
+        <v>202</v>
+      </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -1237,6 +1340,12 @@
       <c r="M12">
         <v>124</v>
       </c>
+      <c r="Q12" t="s">
+        <v>125</v>
+      </c>
+      <c r="R12">
+        <v>164</v>
+      </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -1251,6 +1360,12 @@
       <c r="M13">
         <v>106</v>
       </c>
+      <c r="Q13" t="s">
+        <v>126</v>
+      </c>
+      <c r="R13">
+        <v>163</v>
+      </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -1259,6 +1374,12 @@
       <c r="B14" s="4">
         <v>104</v>
       </c>
+      <c r="Q14" t="s">
+        <v>127</v>
+      </c>
+      <c r="R14">
+        <v>156</v>
+      </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -1267,6 +1388,12 @@
       <c r="B15" s="4">
         <v>78</v>
       </c>
+      <c r="Q15" t="s">
+        <v>128</v>
+      </c>
+      <c r="R15">
+        <v>178</v>
+      </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -1275,104 +1402,182 @@
       <c r="B16" s="4">
         <v>73</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="Q16" t="s">
+        <v>129</v>
+      </c>
+      <c r="R16">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>13</v>
       </c>
       <c r="B17" s="4">
         <v>112</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="Q17" t="s">
+        <v>130</v>
+      </c>
+      <c r="R17">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>14</v>
       </c>
       <c r="B18" s="4">
         <v>89</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="Q18" t="s">
+        <v>131</v>
+      </c>
+      <c r="R18">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>15</v>
       </c>
       <c r="B19" s="4">
         <v>84</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="Q19" t="s">
+        <v>132</v>
+      </c>
+      <c r="R19">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>16</v>
       </c>
       <c r="B20" s="4">
         <v>87</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="Q20" t="s">
+        <v>133</v>
+      </c>
+      <c r="R20">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>17</v>
       </c>
       <c r="B21" s="4">
         <v>82</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="Q21" t="s">
+        <v>138</v>
+      </c>
+      <c r="R21">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>65</v>
       </c>
       <c r="B22" s="4">
         <v>206</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="Q22" t="s">
+        <v>137</v>
+      </c>
+      <c r="R22">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>64</v>
       </c>
       <c r="B23" s="4">
         <v>185</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="Q23" t="s">
+        <v>136</v>
+      </c>
+      <c r="R23">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>63</v>
       </c>
       <c r="B24" s="4">
         <v>78</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="Q24" t="s">
+        <v>135</v>
+      </c>
+      <c r="R24">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>62</v>
       </c>
       <c r="B25" s="4">
         <v>53</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="Q25" t="s">
+        <v>134</v>
+      </c>
+      <c r="R25">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>61</v>
       </c>
       <c r="B26" s="4">
         <v>210</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="Q26" t="s">
+        <v>139</v>
+      </c>
+      <c r="R26">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>60</v>
       </c>
       <c r="B27" s="4">
         <v>195</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="Q27" t="s">
+        <v>140</v>
+      </c>
+      <c r="R27">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>59</v>
       </c>
       <c r="B28" s="4">
         <v>294</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="Q28" t="s">
+        <v>141</v>
+      </c>
+      <c r="R28">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>58</v>
       </c>
@@ -1380,7 +1585,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>57</v>
       </c>
@@ -1388,7 +1593,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>56</v>
       </c>
@@ -1396,7 +1601,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>55</v>
       </c>
@@ -1784,10 +1989,10 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D11" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F11" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">

--- a/documents/Implementation/ImplementationMetrics.xlsx
+++ b/documents/Implementation/ImplementationMetrics.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8115" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8115" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Efficiency" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="142">
   <si>
     <t>Robustness</t>
   </si>
@@ -1128,7 +1128,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M7" workbookViewId="0">
+    <sheetView topLeftCell="M7" workbookViewId="0">
       <selection activeCell="T8" sqref="T8"/>
     </sheetView>
   </sheetViews>
@@ -1914,8 +1914,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1986,6 +1986,9 @@
       <c r="F9" s="1">
         <v>42709</v>
       </c>
+      <c r="H9" s="1">
+        <v>42711</v>
+      </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D11" t="s">
@@ -1994,12 +1997,18 @@
       <c r="F11" t="s">
         <v>110</v>
       </c>
+      <c r="H11" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D12" s="3">
         <v>0.56999999999999995</v>
       </c>
       <c r="F12" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="H12" s="3">
         <v>0.5</v>
       </c>
     </row>

--- a/documents/Implementation/ImplementationMetrics.xlsx
+++ b/documents/Implementation/ImplementationMetrics.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8115" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8115" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Efficiency" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="146">
   <si>
     <t>Robustness</t>
   </si>
@@ -452,12 +452,27 @@
   </si>
   <si>
     <t>#359</t>
+  </si>
+  <si>
+    <t>#466</t>
+  </si>
+  <si>
+    <t>#470</t>
+  </si>
+  <si>
+    <t>#474</t>
+  </si>
+  <si>
+    <t>#480</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
+  </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -540,7 +555,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="15" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -554,6 +569,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="15" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="15" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1126,10 +1142,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T69"/>
+  <dimension ref="A1:Y69"/>
   <sheetViews>
-    <sheetView topLeftCell="M7" workbookViewId="0">
-      <selection activeCell="T8" sqref="T8"/>
+    <sheetView tabSelected="1" topLeftCell="Q3" workbookViewId="0">
+      <selection activeCell="X8" sqref="X8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1150,14 +1166,18 @@
     <col min="18" max="18" width="15.85546875" customWidth="1"/>
     <col min="19" max="19" width="21.28515625" customWidth="1"/>
     <col min="20" max="20" width="27.85546875" customWidth="1"/>
+    <col min="22" max="22" width="23.5703125" customWidth="1"/>
+    <col min="23" max="23" width="16.7109375" customWidth="1"/>
+    <col min="24" max="24" width="15.140625" customWidth="1"/>
+    <col min="25" max="25" width="28.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:20" ht="21" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:25" ht="21" x14ac:dyDescent="0.35">
       <c r="C3" s="1">
         <v>42684</v>
       </c>
@@ -1170,8 +1190,11 @@
       <c r="S3" s="1">
         <v>42709</v>
       </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="X3" s="1">
+        <v>42711</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>4</v>
       </c>
@@ -1212,8 +1235,18 @@
       <c r="T7" s="5" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="V7" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="W7" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="X7" s="5"/>
+      <c r="Y7" s="5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>3</v>
       </c>
@@ -1254,8 +1287,18 @@
         <f>AVERAGE(R8:R28)</f>
         <v>165.66666666666666</v>
       </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="V8" t="s">
+        <v>145</v>
+      </c>
+      <c r="W8">
+        <v>183</v>
+      </c>
+      <c r="Y8" s="4">
+        <f>AVERAGE(W8:W28)</f>
+        <v>205</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -1280,8 +1323,14 @@
       <c r="R9">
         <v>30</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="V9" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="W9">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>3</v>
       </c>
@@ -1306,8 +1355,14 @@
       <c r="R10">
         <v>226</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="V10" t="s">
+        <v>143</v>
+      </c>
+      <c r="W10">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -1326,8 +1381,14 @@
       <c r="R11">
         <v>202</v>
       </c>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="V11" t="s">
+        <v>142</v>
+      </c>
+      <c r="W11">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>8</v>
       </c>
@@ -1347,7 +1408,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>9</v>
       </c>
@@ -1367,7 +1428,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>10</v>
       </c>
@@ -1381,7 +1442,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>11</v>
       </c>
@@ -1395,7 +1456,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>12</v>
       </c>
@@ -1914,7 +1975,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>

--- a/documents/Implementation/ImplementationMetrics.xlsx
+++ b/documents/Implementation/ImplementationMetrics.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8115" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8115"/>
   </bookViews>
   <sheets>
     <sheet name="Efficiency" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="162">
   <si>
     <t>Robustness</t>
   </si>
@@ -464,14 +464,63 @@
   </si>
   <si>
     <t>#480</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Meant Time To Failure</t>
+  </si>
+  <si>
+    <t>Error Prone</t>
+  </si>
+  <si>
+    <t>Totals</t>
+  </si>
+  <si>
+    <t>43 / 1.9 KB</t>
+  </si>
+  <si>
+    <t>43 / 2.9 KB</t>
+  </si>
+  <si>
+    <t>1 / 67.44 B</t>
+  </si>
+  <si>
+    <t>1 / 44.18 B</t>
+  </si>
+  <si>
+    <t>49 / 5.5 KB</t>
+  </si>
+  <si>
+    <t>1 / 112.24 B</t>
+  </si>
+  <si>
+    <t>42 / 2.8 KB</t>
+  </si>
+  <si>
+    <t>1 / 66.66 B</t>
+  </si>
+  <si>
+    <t>49 / 6.5 KB</t>
+  </si>
+  <si>
+    <t>1 / 132.65 B</t>
+  </si>
+  <si>
+    <t>49 / 6.6 KB</t>
+  </si>
+  <si>
+    <t>1 / 134.69 B</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm;@"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -555,7 +604,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="15" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -570,6 +619,10 @@
     <xf numFmtId="15" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="15" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -585,6 +638,4556 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Efficiency:</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Total Requests Sent</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Efficiency!$I$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>10-Nov</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Efficiency!$J$10:$O$10</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Login</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Sign Up</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Logout</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>createPost</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>home</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>addBucket</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Efficiency!$J$11:$O$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>35</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-841B-490F-87F9-4EF2D28D2B41}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Efficiency!$I$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>16-Nov</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Efficiency!$J$10:$O$10</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Login</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Sign Up</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Logout</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>createPost</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>home</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>addBucket</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Efficiency!$J$12:$O$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>14</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-841B-490F-87F9-4EF2D28D2B41}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Efficiency!$I$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>5-Dec</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Efficiency!$J$10:$O$10</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Login</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Sign Up</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Logout</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>createPost</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>home</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>addBucket</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Efficiency!$J$13:$O$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>49</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-841B-490F-87F9-4EF2D28D2B41}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Efficiency!$I$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>7-Dec</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Efficiency!$J$10:$O$10</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Login</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Sign Up</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Logout</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>createPost</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>home</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>addBucket</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Efficiency!$J$14:$O$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>49</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-841B-490F-87F9-4EF2D28D2B41}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="402755640"/>
+        <c:axId val="402759904"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="402755640"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="402759904"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="402759904"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t># of</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> requests</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="402755640"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Efficiency: Total</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Data Sent</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Efficiency!$I$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>10-Nov</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Efficiency!$J$18:$O$18</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Login</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Sign Up</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Logout</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>createPost</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>home</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>addBucket</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Efficiency!$J$19:$O$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>151</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>151</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>349</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>151</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>68900</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>228</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5EDC-4CD0-B08F-1B3CCAB0B359}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Efficiency!$I$20</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>16-Nov</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Efficiency!$J$18:$O$18</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Login</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Sign Up</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Logout</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>createPost</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>home</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>addBucket</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Efficiency!$J$20:$O$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>636</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>636</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>834</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13200</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12900</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-5EDC-4CD0-B08F-1B3CCAB0B359}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Efficiency!$I$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>5-Dec</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Efficiency!$J$18:$O$18</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Login</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Sign Up</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Logout</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>createPost</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>home</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>addBucket</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Efficiency!$J$21:$O$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2600</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2700</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1800</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-5EDC-4CD0-B08F-1B3CCAB0B359}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Efficiency!$I$22</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>7-Dec</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Efficiency!$J$18:$O$18</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Login</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Sign Up</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Logout</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>createPost</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>home</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>addBucket</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Efficiency!$J$22:$O$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1900</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2900</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2800</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6600</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-5EDC-4CD0-B08F-1B3CCAB0B359}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="466631640"/>
+        <c:axId val="466626720"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="466631640"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="466626720"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="466626720"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>#</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> of bytes</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="466631640"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Reliability:</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Meant Time To Failure</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.34007123854173504"/>
+          <c:y val="2.4777381567286441E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Reliability!$AD$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Meant Time To Failure</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Reliability!$AC$8:$AC$12</c:f>
+              <c:numCache>
+                <c:formatCode>[$-409]d\-mmm;@</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>42711</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>42709</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42695</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>42690</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>42684</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Reliability!$AD$8:$AD$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0" formatCode="0">
+                  <c:v>205</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>166</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>136</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E0BC-4403-8152-CC572FB8D2F5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="412472224"/>
+        <c:axId val="412470256"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="412472224"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="[$-409]d\-mmm;@" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="412470256"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="412470256"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Mean Time</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> to Fail (</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Seconds)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="412472224"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Robustness: Error Prone</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Robustness!$K$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Error Prone</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Robustness!$J$4:$J$10</c:f>
+              <c:numCache>
+                <c:formatCode>[$-409]d\-mmm;@</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0" formatCode="d\-mmm">
+                  <c:v>42684</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>42690</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42695</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>42698</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>42706</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>42709</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>42711</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Robustness!$K$4:$K$10</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.71</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.82</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.53</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.53</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.56999999999999995</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D165-4F32-8DC2-F7CB5EE87D93}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="402188424"/>
+        <c:axId val="402189408"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="402188424"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="d\-mmm" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="402189408"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="402189408"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Error</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Prone</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="1.8583042973286876E-2"/>
+              <c:y val="0.38322520245398023"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="402188424"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>90486</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>247649</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{331570A3-D103-4C12-A3D3-90F4262CE089}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>42861</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>171449</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EEE36C1F-6F44-40B0-B9EA-0C3F3668977E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>1600200</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>14285</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>47624</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E5881F2E-DB93-45F2-B02F-BE827328523D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>271461</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>57149</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E0BA792D-4B29-4688-A351-9DA1182E1669}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -884,10 +5487,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:O28"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView tabSelected="1" topLeftCell="G19" workbookViewId="0">
+      <selection activeCell="R26" sqref="R26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -899,14 +5502,17 @@
     <col min="5" max="5" width="13.42578125" customWidth="1"/>
     <col min="6" max="6" width="14" customWidth="1"/>
     <col min="7" max="7" width="16.42578125" customWidth="1"/>
+    <col min="9" max="9" width="15.5703125" customWidth="1"/>
+    <col min="13" max="13" width="11" customWidth="1"/>
+    <col min="15" max="15" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="21" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="10" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="6" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:15" s="6" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A3"/>
       <c r="B3"/>
       <c r="C3" s="11">
@@ -917,7 +5523,7 @@
       <c r="F3"/>
       <c r="G3"/>
     </row>
-    <row r="5" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>72</v>
       </c>
@@ -940,7 +5546,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>69</v>
       </c>
@@ -963,7 +5569,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>70</v>
       </c>
@@ -986,12 +5592,56 @@
         <v>93</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="21" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:15" ht="21" x14ac:dyDescent="0.35">
       <c r="C10" s="12">
         <v>42690</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I10" t="s">
+        <v>146</v>
+      </c>
+      <c r="J10" t="s">
+        <v>71</v>
+      </c>
+      <c r="K10" t="s">
+        <v>73</v>
+      </c>
+      <c r="L10" t="s">
+        <v>74</v>
+      </c>
+      <c r="M10" t="s">
+        <v>75</v>
+      </c>
+      <c r="N10" t="s">
+        <v>83</v>
+      </c>
+      <c r="O10" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="I11" s="17">
+        <v>42684</v>
+      </c>
+      <c r="J11">
+        <v>39</v>
+      </c>
+      <c r="K11">
+        <v>39</v>
+      </c>
+      <c r="L11">
+        <v>40</v>
+      </c>
+      <c r="M11">
+        <v>39</v>
+      </c>
+      <c r="N11">
+        <v>6</v>
+      </c>
+      <c r="O11">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" ht="21" x14ac:dyDescent="0.35">
       <c r="A12" s="7" t="s">
         <v>72</v>
       </c>
@@ -1013,8 +5663,29 @@
       <c r="G12" s="6" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I12" s="16">
+        <v>42690</v>
+      </c>
+      <c r="J12">
+        <v>8</v>
+      </c>
+      <c r="K12">
+        <v>8</v>
+      </c>
+      <c r="L12">
+        <v>9</v>
+      </c>
+      <c r="M12">
+        <v>6</v>
+      </c>
+      <c r="N12">
+        <v>12</v>
+      </c>
+      <c r="O12">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" ht="21" x14ac:dyDescent="0.35">
       <c r="A13" s="7" t="s">
         <v>69</v>
       </c>
@@ -1036,8 +5707,29 @@
       <c r="G13" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I13" s="16">
+        <v>42709</v>
+      </c>
+      <c r="J13">
+        <v>41</v>
+      </c>
+      <c r="K13">
+        <v>41</v>
+      </c>
+      <c r="L13">
+        <v>42</v>
+      </c>
+      <c r="M13">
+        <v>49</v>
+      </c>
+      <c r="N13">
+        <v>48</v>
+      </c>
+      <c r="O13">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" ht="21" x14ac:dyDescent="0.35">
       <c r="A14" s="7" t="s">
         <v>70</v>
       </c>
@@ -1059,13 +5751,57 @@
       <c r="G14" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" ht="21" x14ac:dyDescent="0.35">
+      <c r="I14" s="16">
+        <v>42711</v>
+      </c>
+      <c r="J14">
+        <v>43</v>
+      </c>
+      <c r="K14">
+        <v>43</v>
+      </c>
+      <c r="L14">
+        <v>42</v>
+      </c>
+      <c r="M14">
+        <v>49</v>
+      </c>
+      <c r="N14">
+        <v>49</v>
+      </c>
+      <c r="O14">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" ht="21" x14ac:dyDescent="0.35">
       <c r="C17" s="12">
         <v>42709</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="I18" t="s">
+        <v>146</v>
+      </c>
+      <c r="J18" t="s">
+        <v>71</v>
+      </c>
+      <c r="K18" t="s">
+        <v>73</v>
+      </c>
+      <c r="L18" t="s">
+        <v>74</v>
+      </c>
+      <c r="M18" t="s">
+        <v>75</v>
+      </c>
+      <c r="N18" t="s">
+        <v>83</v>
+      </c>
+      <c r="O18" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A19" s="7" t="s">
         <v>72</v>
       </c>
@@ -1087,8 +5823,29 @@
       <c r="G19" s="6" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I19" s="17">
+        <v>42684</v>
+      </c>
+      <c r="J19">
+        <v>151</v>
+      </c>
+      <c r="K19">
+        <v>151</v>
+      </c>
+      <c r="L19">
+        <v>349</v>
+      </c>
+      <c r="M19">
+        <v>151</v>
+      </c>
+      <c r="N19">
+        <v>68900</v>
+      </c>
+      <c r="O19">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" ht="21" x14ac:dyDescent="0.35">
       <c r="A20" s="7" t="s">
         <v>69</v>
       </c>
@@ -1110,8 +5867,29 @@
       <c r="G20" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I20" s="16">
+        <v>42690</v>
+      </c>
+      <c r="J20">
+        <v>636</v>
+      </c>
+      <c r="K20">
+        <v>636</v>
+      </c>
+      <c r="L20">
+        <v>834</v>
+      </c>
+      <c r="M20">
+        <v>1000</v>
+      </c>
+      <c r="N20">
+        <v>13200</v>
+      </c>
+      <c r="O20">
+        <v>12900</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" ht="21" x14ac:dyDescent="0.35">
       <c r="A21" s="7" t="s">
         <v>70</v>
       </c>
@@ -1132,20 +5910,140 @@
       </c>
       <c r="G21" t="s">
         <v>119</v>
+      </c>
+      <c r="I21" s="16">
+        <v>42709</v>
+      </c>
+      <c r="J21">
+        <v>1600</v>
+      </c>
+      <c r="K21">
+        <v>2600</v>
+      </c>
+      <c r="L21">
+        <v>2700</v>
+      </c>
+      <c r="M21">
+        <v>1800</v>
+      </c>
+      <c r="N21">
+        <v>3000</v>
+      </c>
+      <c r="O21">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" ht="21" x14ac:dyDescent="0.35">
+      <c r="I22" s="16">
+        <v>42711</v>
+      </c>
+      <c r="J22">
+        <v>1900</v>
+      </c>
+      <c r="K22">
+        <v>2900</v>
+      </c>
+      <c r="L22">
+        <v>2800</v>
+      </c>
+      <c r="M22">
+        <v>6600</v>
+      </c>
+      <c r="N22">
+        <v>5500</v>
+      </c>
+      <c r="O22">
+        <v>6500</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" ht="21" x14ac:dyDescent="0.35">
+      <c r="C24" s="12">
+        <v>42711</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="G26" s="6" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="B27" t="s">
+        <v>150</v>
+      </c>
+      <c r="C27" t="s">
+        <v>151</v>
+      </c>
+      <c r="D27" t="s">
+        <v>156</v>
+      </c>
+      <c r="E27" t="s">
+        <v>160</v>
+      </c>
+      <c r="F27" t="s">
+        <v>154</v>
+      </c>
+      <c r="G27" t="s">
+        <v>158</v>
+      </c>
+      <c r="I27" s="6"/>
+    </row>
+    <row r="28" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="B28" t="s">
+        <v>153</v>
+      </c>
+      <c r="C28" t="s">
+        <v>152</v>
+      </c>
+      <c r="D28" t="s">
+        <v>157</v>
+      </c>
+      <c r="E28" t="s">
+        <v>161</v>
+      </c>
+      <c r="F28" t="s">
+        <v>155</v>
+      </c>
+      <c r="G28" t="s">
+        <v>159</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y69"/>
+  <dimension ref="A1:AD69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q3" workbookViewId="0">
-      <selection activeCell="X8" sqref="X8"/>
+    <sheetView topLeftCell="X15" workbookViewId="0">
+      <selection activeCell="AK25" sqref="AK25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1170,14 +6068,16 @@
     <col min="23" max="23" width="16.7109375" customWidth="1"/>
     <col min="24" max="24" width="15.140625" customWidth="1"/>
     <col min="25" max="25" width="28.28515625" customWidth="1"/>
+    <col min="29" max="29" width="12" customWidth="1"/>
+    <col min="30" max="30" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:30" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:25" ht="21" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:30" ht="21" x14ac:dyDescent="0.35">
       <c r="C3" s="1">
         <v>42684</v>
       </c>
@@ -1194,7 +6094,7 @@
         <v>42711</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>4</v>
       </c>
@@ -1245,8 +6145,14 @@
       <c r="Y7" s="5" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AC7" t="s">
+        <v>146</v>
+      </c>
+      <c r="AD7" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>3</v>
       </c>
@@ -1297,8 +6203,14 @@
         <f>AVERAGE(W8:W28)</f>
         <v>205</v>
       </c>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AC8" s="14">
+        <v>42711</v>
+      </c>
+      <c r="AD8" s="4">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -1329,8 +6241,14 @@
       <c r="W9">
         <v>180</v>
       </c>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AC9" s="14">
+        <v>42709</v>
+      </c>
+      <c r="AD9">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>3</v>
       </c>
@@ -1361,8 +6279,14 @@
       <c r="W10">
         <v>249</v>
       </c>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AC10" s="14">
+        <v>42695</v>
+      </c>
+      <c r="AD10">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -1387,8 +6311,14 @@
       <c r="W11">
         <v>208</v>
       </c>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AC11" s="14">
+        <v>42690</v>
+      </c>
+      <c r="AD11">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>8</v>
       </c>
@@ -1407,8 +6337,14 @@
       <c r="R12">
         <v>164</v>
       </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AC12" s="14">
+        <v>42684</v>
+      </c>
+      <c r="AD12">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>9</v>
       </c>
@@ -1428,7 +6364,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>10</v>
       </c>
@@ -1442,7 +6378,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>11</v>
       </c>
@@ -1456,7 +6392,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>12</v>
       </c>
@@ -1968,15 +6904,17 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:K12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="U2" sqref="U2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1985,14 +6923,21 @@
     <col min="4" max="4" width="15.42578125" customWidth="1"/>
     <col min="6" max="6" width="14.28515625" customWidth="1"/>
     <col min="8" max="8" width="16.5703125" customWidth="1"/>
+    <col min="10" max="10" width="12.140625" customWidth="1"/>
+    <col min="11" max="11" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="21" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="21" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>42684</v>
       </c>
@@ -2005,8 +6950,22 @@
       <c r="H3" s="1">
         <v>42698</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J3" t="s">
+        <v>146</v>
+      </c>
+      <c r="K3" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J4" s="15">
+        <v>42684</v>
+      </c>
+      <c r="K4" s="3">
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>67</v>
       </c>
@@ -2022,8 +6981,14 @@
       <c r="H5" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J5" s="14">
+        <v>42690</v>
+      </c>
+      <c r="K5" s="3">
+        <v>0.82</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>2</v>
       </c>
@@ -2039,8 +7004,30 @@
       <c r="H6" s="3">
         <v>0.53</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" ht="21" x14ac:dyDescent="0.35">
+      <c r="J6" s="14">
+        <v>42695</v>
+      </c>
+      <c r="K6" s="3">
+        <v>0.53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J7" s="14">
+        <v>42698</v>
+      </c>
+      <c r="K7" s="3">
+        <v>0.53</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J8" s="14">
+        <v>42706</v>
+      </c>
+      <c r="K8" s="3">
+        <v>0.56999999999999995</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="21" x14ac:dyDescent="0.35">
       <c r="D9" s="1">
         <v>42706</v>
       </c>
@@ -2050,8 +7037,22 @@
       <c r="H9" s="1">
         <v>42711</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J9" s="14">
+        <v>42709</v>
+      </c>
+      <c r="K9" s="3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J10" s="14">
+        <v>42711</v>
+      </c>
+      <c r="K10" s="3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D11" t="s">
         <v>109</v>
       </c>
@@ -2062,7 +7063,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D12" s="3">
         <v>0.56999999999999995</v>
       </c>
@@ -2076,5 +7077,6 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>